--- a/datas/Drop.xlsx
+++ b/datas/Drop.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Drop" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drop" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,96 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>常驻卡池-普通</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>常驻卡池-稀有</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>常驻卡池-史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>101</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>限定卡池-普通</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>102</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>限定卡池-稀有</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>103</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>限定卡池-史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>104</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>限定卡池-隐藏</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>201</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>保底-史诗</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>202</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>保底-隐藏</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
